--- a/result/gsvoygr/evaluation.xlsx
+++ b/result/gsvoygr/evaluation.xlsx
@@ -67,10 +67,10 @@
     <t>sortino比率</t>
   </si>
   <si>
-    <t>20101019-20101230</t>
-  </si>
-  <si>
-    <t>20100415-20100722</t>
+    <t>20101019-20101130</t>
+  </si>
+  <si>
+    <t>20100414-20100806</t>
   </si>
   <si>
     <t>20100831-20101126</t>
@@ -498,7 +498,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>2.516390268547264</v>
+        <v>2.291377432556274</v>
       </c>
       <c r="C2">
         <v>1.750483676714309</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2.41533736486883</v>
+        <v>2.199457200464883</v>
       </c>
       <c r="C3">
         <v>1.680439700543412</v>
@@ -547,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2.516390268547264</v>
+        <v>2.291377432556274</v>
       </c>
       <c r="C4">
         <v>1.750483676714309</v>
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>6.140391660027446</v>
+        <v>4.211359881278153</v>
       </c>
       <c r="C5">
         <v>2.182357181509085</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5.678632499795183</v>
+        <v>2.999474936778645</v>
       </c>
       <c r="C6">
         <v>4.218194201278481</v>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>122</v>
@@ -703,7 +703,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1655226201451629</v>
+        <v>0.1879104763823835</v>
       </c>
       <c r="C10">
         <v>0.114771404835127</v>
@@ -729,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1789818887549154</v>
+        <v>0.2638298589753399</v>
       </c>
       <c r="C11">
         <v>0.05938032407469185</v>
@@ -755,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2.691161846063171</v>
+        <v>2.79494821967236</v>
       </c>
       <c r="C12">
         <v>1.452927787460295</v>
